--- a/Symphony/2021/Others/Document/Final/Mugdho Corporation Commission Top Sheet.xlsx
+++ b/Symphony/2021/Others/Document/Final/Mugdho Corporation Commission Top Sheet.xlsx
@@ -218,6 +218,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -228,9 +231,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -540,7 +540,7 @@
   <dimension ref="A1:E16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,22 +554,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="10"/>
-      <c r="C1" s="10"/>
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
+      <c r="B1" s="11"/>
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
@@ -596,14 +596,14 @@
         <v>1</v>
       </c>
       <c r="C4" s="8">
-        <v>301289.78500000003</v>
+        <v>311164.78500000003</v>
       </c>
       <c r="D4" s="6">
         <v>70070</v>
       </c>
       <c r="E4" s="8">
         <f>C4+D4</f>
-        <v>371359.78500000003</v>
+        <v>381234.78500000003</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
@@ -614,14 +614,14 @@
         <v>2</v>
       </c>
       <c r="C5" s="4">
-        <v>302989.90500000009</v>
+        <v>336509.90500000009</v>
       </c>
       <c r="D5" s="2">
         <v>185755</v>
       </c>
       <c r="E5" s="8">
         <f t="shared" ref="E5:E15" si="0">C5+D5</f>
-        <v>488744.90500000009</v>
+        <v>522264.90500000009</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -632,14 +632,14 @@
         <v>10</v>
       </c>
       <c r="C6" s="4">
-        <v>397088.76500000001</v>
+        <v>402128.76500000001</v>
       </c>
       <c r="D6" s="2">
         <v>84909</v>
       </c>
       <c r="E6" s="8">
         <f t="shared" si="0"/>
-        <v>481997.76500000001</v>
+        <v>487037.76500000001</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -668,14 +668,14 @@
         <v>12</v>
       </c>
       <c r="C8" s="4">
-        <v>472675.54500000004</v>
+        <v>477675.54500000004</v>
       </c>
       <c r="D8" s="2">
         <v>220317</v>
       </c>
       <c r="E8" s="8">
         <f t="shared" si="0"/>
-        <v>692992.54500000004</v>
+        <v>697992.54500000004</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
@@ -686,14 +686,14 @@
         <v>13</v>
       </c>
       <c r="C9" s="4">
-        <v>383024.44</v>
+        <v>386224.44</v>
       </c>
       <c r="D9" s="2">
         <v>94507</v>
       </c>
       <c r="E9" s="8">
         <f t="shared" si="0"/>
-        <v>477531.44</v>
+        <v>480731.44</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -704,14 +704,14 @@
         <v>14</v>
       </c>
       <c r="C10" s="4">
-        <v>320159.38991428528</v>
+        <v>321139.38991428528</v>
       </c>
       <c r="D10" s="2">
         <v>86599</v>
       </c>
       <c r="E10" s="8">
         <f t="shared" si="0"/>
-        <v>406758.38991428528</v>
+        <v>407738.38991428528</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -722,14 +722,14 @@
         <v>15</v>
       </c>
       <c r="C11" s="4">
-        <v>342279.17258571379</v>
+        <v>342979.17258571379</v>
       </c>
       <c r="D11" s="2">
         <v>199869</v>
       </c>
       <c r="E11" s="8">
         <f t="shared" si="0"/>
-        <v>542148.17258571379</v>
+        <v>542848.17258571379</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -805,13 +805,13 @@
       </c>
     </row>
     <row r="16" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="12" t="s">
+      <c r="A16" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="B16" s="13"/>
-      <c r="C16" s="14">
+      <c r="B16" s="14"/>
+      <c r="C16" s="10">
         <f>SUM(C4:C15)</f>
-        <v>3868928.0566142844</v>
+        <v>3927243.0566142844</v>
       </c>
       <c r="D16" s="9">
         <f>SUM(D4:D15)</f>
@@ -819,7 +819,7 @@
       </c>
       <c r="E16" s="5">
         <f>SUM(E4:E15)</f>
-        <v>5213600.0566142844</v>
+        <v>5271915.0566142844</v>
       </c>
     </row>
   </sheetData>

--- a/Symphony/2021/Others/Document/Final/Mugdho Corporation Commission Top Sheet.xlsx
+++ b/Symphony/2021/Others/Document/Final/Mugdho Corporation Commission Top Sheet.xlsx
@@ -16,17 +16,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t xml:space="preserve">Mugdho Corporation </t>
   </si>
   <si>
-    <t>May_2020</t>
-  </si>
-  <si>
-    <t>June_2020</t>
-  </si>
-  <si>
     <t>Month</t>
   </si>
   <si>
@@ -45,9 +39,6 @@
     <t>Grand Total Commission=</t>
   </si>
   <si>
-    <t>2020-2021 Commission Sheet</t>
-  </si>
-  <si>
     <t>July_2020</t>
   </si>
   <si>
@@ -76,13 +67,25 @@
   </si>
   <si>
     <t>April_2021</t>
+  </si>
+  <si>
+    <t>May_2021</t>
+  </si>
+  <si>
+    <t>June_2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  July'2020-June'2021 Commission Sheet</t>
+  </si>
+  <si>
+    <t>Distributior: Symphony Mobile(Edison Group)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -107,6 +110,13 @@
     </font>
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -189,7 +199,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -231,6 +241,12 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -537,10 +553,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -553,7 +569,7 @@
     <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="19.5" x14ac:dyDescent="0.25">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
@@ -562,271 +578,287 @@
       <c r="D1" s="11"/>
       <c r="E1" s="11"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="12" t="s">
+    <row r="2" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="B2" s="16"/>
+      <c r="C2" s="16"/>
+      <c r="D2" s="16"/>
+      <c r="E2" s="16"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="12"/>
+      <c r="C3" s="12"/>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" s="2">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="4">
+        <v>402128.76500000001</v>
+      </c>
+      <c r="D5" s="2">
+        <v>84909</v>
+      </c>
+      <c r="E5" s="8">
+        <f t="shared" ref="E5:E16" si="0">C5+D5</f>
+        <v>487037.76500000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" s="6">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4">
+        <v>317775.41500000004</v>
+      </c>
+      <c r="D6" s="2">
+        <v>82890</v>
+      </c>
+      <c r="E6" s="8">
+        <f t="shared" si="0"/>
+        <v>400665.41500000004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" s="2">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="12"/>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="C7" s="4">
+        <v>477675.54500000004</v>
+      </c>
+      <c r="D7" s="2">
+        <v>220317</v>
+      </c>
+      <c r="E7" s="8">
+        <f t="shared" si="0"/>
+        <v>697992.54500000004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="B8" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4">
+        <v>386224.44</v>
+      </c>
+      <c r="D8" s="2">
+        <v>94507</v>
+      </c>
+      <c r="E8" s="8">
+        <f t="shared" si="0"/>
+        <v>480731.44</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" s="6">
         <v>7</v>
       </c>
-      <c r="E3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="6">
+      <c r="B9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="4">
+        <v>321139.38991428528</v>
+      </c>
+      <c r="D9" s="2">
+        <v>86599</v>
+      </c>
+      <c r="E9" s="8">
+        <f t="shared" si="0"/>
+        <v>407738.38991428528</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" s="2">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="4">
+        <v>342979.17258571379</v>
+      </c>
+      <c r="D10" s="2">
+        <v>199869</v>
+      </c>
+      <c r="E10" s="8">
+        <f t="shared" si="0"/>
+        <v>542848.17258571379</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" s="2">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C11" s="4">
+        <v>305231.82099999994</v>
+      </c>
+      <c r="D11" s="2">
+        <v>61746</v>
+      </c>
+      <c r="E11" s="8">
+        <f t="shared" si="0"/>
+        <v>366977.82099999994</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" s="2">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="C12" s="4">
+        <v>258643.4563142854</v>
+      </c>
+      <c r="D12" s="2">
+        <v>65369</v>
+      </c>
+      <c r="E12" s="8">
+        <f t="shared" si="0"/>
+        <v>324012.4563142854</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" s="2">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C13" s="4">
+        <v>292705.08680000005</v>
+      </c>
+      <c r="D13" s="2">
+        <v>152641</v>
+      </c>
+      <c r="E13" s="8">
+        <f t="shared" si="0"/>
+        <v>445346.08680000005</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" s="2">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="4">
+        <v>175065.27500000008</v>
+      </c>
+      <c r="D14" s="2">
+        <v>32765</v>
+      </c>
+      <c r="E14" s="8">
+        <f t="shared" si="0"/>
+        <v>207830.27500000008</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
         <v>1</v>
       </c>
-      <c r="B4" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" s="8">
-        <v>311164.78500000003</v>
-      </c>
-      <c r="D4" s="6">
-        <v>70070</v>
-      </c>
-      <c r="E4" s="8">
-        <f>C4+D4</f>
-        <v>381234.78500000003</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
+      <c r="B15" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="C15" s="8">
+        <v>273090.1750000001</v>
+      </c>
+      <c r="D15" s="6">
+        <v>58653</v>
+      </c>
+      <c r="E15" s="8">
+        <f t="shared" si="0"/>
+        <v>331743.1750000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="2">
         <v>2</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="4">
-        <v>336509.90500000009</v>
-      </c>
-      <c r="D5" s="2">
-        <v>185755</v>
-      </c>
-      <c r="E5" s="8">
-        <f t="shared" ref="E5:E15" si="0">C5+D5</f>
-        <v>522264.90500000009</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>3</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="4">
-        <v>402128.76500000001</v>
-      </c>
-      <c r="D6" s="2">
-        <v>84909</v>
-      </c>
-      <c r="E6" s="8">
-        <f t="shared" si="0"/>
-        <v>487037.76500000001</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="6">
-        <v>4</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="C7" s="4">
-        <v>317775.41500000004</v>
-      </c>
-      <c r="D7" s="2">
-        <v>82890</v>
-      </c>
-      <c r="E7" s="8">
-        <f t="shared" si="0"/>
-        <v>400665.41500000004</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
-        <v>5</v>
-      </c>
-      <c r="B8" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" s="4">
-        <v>477675.54500000004</v>
-      </c>
-      <c r="D8" s="2">
-        <v>220317</v>
-      </c>
-      <c r="E8" s="8">
-        <f t="shared" si="0"/>
-        <v>697992.54500000004</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+      <c r="B16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="4">
+        <v>300579.35170000012</v>
+      </c>
+      <c r="D16" s="2">
+        <v>160000</v>
+      </c>
+      <c r="E16" s="8">
+        <f t="shared" si="0"/>
+        <v>460579.35170000012</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="C9" s="4">
-        <v>386224.44</v>
-      </c>
-      <c r="D9" s="2">
-        <v>94507</v>
-      </c>
-      <c r="E9" s="8">
-        <f t="shared" si="0"/>
-        <v>480731.44</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="6">
-        <v>7</v>
-      </c>
-      <c r="B10" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="4">
-        <v>321139.38991428528</v>
-      </c>
-      <c r="D10" s="2">
-        <v>86599</v>
-      </c>
-      <c r="E10" s="8">
-        <f t="shared" si="0"/>
-        <v>407738.38991428528</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="C11" s="4">
-        <v>342979.17258571379</v>
-      </c>
-      <c r="D11" s="2">
-        <v>199869</v>
-      </c>
-      <c r="E11" s="8">
-        <f t="shared" si="0"/>
-        <v>542848.17258571379</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
-        <v>9</v>
-      </c>
-      <c r="B12" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="4">
-        <v>305231.82099999994</v>
-      </c>
-      <c r="D12" s="2">
-        <v>61746</v>
-      </c>
-      <c r="E12" s="8">
-        <f t="shared" si="0"/>
-        <v>366977.82099999994</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="2">
-        <v>10</v>
-      </c>
-      <c r="B13" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C13" s="4">
-        <v>258643.4563142854</v>
-      </c>
-      <c r="D13" s="2">
-        <v>65369</v>
-      </c>
-      <c r="E13" s="8">
-        <f t="shared" si="0"/>
-        <v>324012.4563142854</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="2">
-        <v>11</v>
-      </c>
-      <c r="B14" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C14" s="4">
-        <v>292705.08680000005</v>
-      </c>
-      <c r="D14" s="2">
-        <v>152641</v>
-      </c>
-      <c r="E14" s="8">
-        <f t="shared" si="0"/>
-        <v>445346.08680000005</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="2">
-        <v>12</v>
-      </c>
-      <c r="B15" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="C15" s="4">
-        <v>175065.27500000008</v>
-      </c>
-      <c r="D15" s="2">
-        <v>40000</v>
-      </c>
-      <c r="E15" s="8">
-        <f t="shared" si="0"/>
-        <v>215065.27500000008</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="19.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="B16" s="14"/>
-      <c r="C16" s="10">
-        <f>SUM(C4:C15)</f>
-        <v>3927243.0566142844</v>
-      </c>
-      <c r="D16" s="9">
-        <f>SUM(D4:D15)</f>
-        <v>1344672</v>
-      </c>
-      <c r="E16" s="5">
-        <f>SUM(E4:E15)</f>
-        <v>5271915.0566142844</v>
+      <c r="B17" s="14"/>
+      <c r="C17" s="10">
+        <f>SUM(C5:C16)</f>
+        <v>3853237.8933142847</v>
+      </c>
+      <c r="D17" s="9">
+        <f>SUM(D5:D16)</f>
+        <v>1300265</v>
+      </c>
+      <c r="E17" s="5">
+        <f>SUM(E5:E16)</f>
+        <v>5153502.8933142852</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="4">
     <mergeCell ref="A1:E1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A17:B17"/>
     <mergeCell ref="A2:E2"/>
-    <mergeCell ref="A16:B16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
